--- a/armands_regression.xlsx
+++ b/armands_regression.xlsx
@@ -5,30 +5,50 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vafa.saboorideilami/Documents/Chapter 14/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vafa.saboorideilami/Documents/5504/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB5A41C-217F-974B-8BE6-1718A8E16215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65CD505-8397-D942-9BE5-8995A90F6C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Excel regression" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="Population" localSheetId="1">#REF!</definedName>
     <definedName name="Population">#REF!</definedName>
+    <definedName name="Sales" localSheetId="1">#REF!</definedName>
     <definedName name="Sales">#REF!</definedName>
+    <definedName name="x" localSheetId="1">#REF!</definedName>
     <definedName name="x">#REF!</definedName>
     <definedName name="y">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>Restaurant</t>
   </si>
@@ -38,16 +58,104 @@
   <si>
     <t>Sales</t>
   </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>Population (xi)</t>
+  </si>
+  <si>
+    <t>Corr. Coeff.</t>
+  </si>
+  <si>
+    <t>Sales (yi)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -62,16 +170,62 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD4B4"/>
+        <bgColor rgb="FFFBD4B4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -79,20 +233,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F16F391E-3E40-7B43-98B0-45AC9A34A925}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1144,16 +1374,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>108299</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>149745</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1179,6 +1409,927 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="142875" cy="247650"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989410E6-FF86-E147-AFE4-217BEBC85F49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2835275" y="6257925"/>
+          <a:ext cx="142875" cy="247650"/>
+          <a:chOff x="5279325" y="3660938"/>
+          <a:chExt cx="133350" cy="238125"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="3" name="Shape 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8353B57-8E21-4AE0-69A0-8C870DB2E3DD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5279325" y="3660938"/>
+            <a:ext cx="133350" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="4A7DBA"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="304800"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F98D4F22-E0BE-9F40-8ECF-23FB6D0A0E77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4460875" y="6248400"/>
+          <a:ext cx="95250" cy="304800"/>
+          <a:chOff x="5303138" y="3632363"/>
+          <a:chExt cx="85725" cy="295275"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="Shape 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1BAC75A-70AD-53A0-DC59-BA903FDAC7AB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5303138" y="3632363"/>
+            <a:ext cx="85725" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="4A7DBA"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="476250" cy="304800"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D57B17B-5F64-D441-B70C-D80A5DF810C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2654300" y="2857500"/>
+          <a:ext cx="476250" cy="304800"/>
+          <a:chOff x="5107875" y="3632363"/>
+          <a:chExt cx="476250" cy="295275"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="7" name="Shape 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED53A0F7-2F8D-71E9-C2E5-0C1F70FA61B6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipH="1">
+            <a:off x="5107875" y="3632363"/>
+            <a:ext cx="476250" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="4A7DBA"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="971550" cy="38100"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E03E30D-482F-4F4E-9AAF-C9C2E3509808}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2654300" y="3705225"/>
+          <a:ext cx="971550" cy="38100"/>
+          <a:chOff x="4860225" y="3780000"/>
+          <a:chExt cx="971550" cy="0"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="9" name="Shape 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C45577B3-18B1-713F-2F26-532B51289408}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4860225" y="3780000"/>
+            <a:ext cx="971550" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="4A7DBA"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="581025" cy="628650"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C28F5D4-B480-E943-8D32-8810F4599160}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2625725" y="4667250"/>
+          <a:ext cx="581025" cy="628650"/>
+          <a:chOff x="5060250" y="3470363"/>
+          <a:chExt cx="571500" cy="619200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="Shape 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9546B8E3-ED11-193F-7003-97E070030F25}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="9" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="5060250" y="3470363"/>
+            <a:ext cx="571500" cy="619200"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="4A7DBA"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="790575" cy="371475"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F49BF1A-7B18-4343-BD52-587C5ED0D471}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3644900" y="4657725"/>
+          <a:ext cx="790575" cy="371475"/>
+          <a:chOff x="4955475" y="3599025"/>
+          <a:chExt cx="781050" cy="361950"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="13" name="Shape 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB7FDE6-FF9C-05E6-D028-603169C6E437}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipH="1">
+            <a:off x="4955475" y="3599025"/>
+            <a:ext cx="781050" cy="361950"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="4A7DBA"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1847850" cy="790575"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F54B2DC-184A-864D-82E7-2DCB5AD43A86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2644775" y="2609850"/>
+          <a:ext cx="1847850" cy="790575"/>
+          <a:chOff x="4426838" y="3389625"/>
+          <a:chExt cx="1838400" cy="780900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="15" name="Shape 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9853330A-68CD-6194-A72F-BDA069024AB8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="12" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipH="1">
+            <a:off x="4426838" y="3389625"/>
+            <a:ext cx="1838400" cy="780900"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="4A7DBA"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1571625" cy="800100"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B83492-FC50-4E40-961C-4C635F150FF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4584700" y="4305300"/>
+          <a:ext cx="1571625" cy="800100"/>
+          <a:chOff x="4564950" y="3379950"/>
+          <a:chExt cx="1562100" cy="800100"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="17" name="Shape 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE02C02-FA26-5C35-19EC-3559F3E3E1D7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipH="1">
+            <a:off x="4564950" y="3379950"/>
+            <a:ext cx="1562100" cy="800100"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="4A7DBA"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2581275" cy="38100"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DDD83D8-8F11-EA4B-9DEB-98AA0C233F46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4683125" y="5248275"/>
+          <a:ext cx="2581275" cy="38100"/>
+          <a:chOff x="4055363" y="3780000"/>
+          <a:chExt cx="2581275" cy="0"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="19" name="Shape 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B88990-B11B-BBC2-33F0-4F95B29BBDDF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4055363" y="3780000"/>
+            <a:ext cx="2581275" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="4A7DBA"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1819275" cy="638175"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="image4.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A796D9EB-D380-6D42-9A81-E246A41A76F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1517650" y="6743700"/>
+          <a:ext cx="1819275" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="971550" cy="666750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="image8.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B5397E5-7832-4B4A-B544-935B17C347EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="6765925"/>
+          <a:ext cx="971550" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1933575" cy="552450"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="image10.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F81BE8A7-FF49-EF48-B3F7-2F9FFE0FB8CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2552700" y="3346450"/>
+          <a:ext cx="1933575" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1400175" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="image9.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A79E44A-5E23-EA43-8095-CE21663E0FED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4606925" y="6607175"/>
+          <a:ext cx="1400175" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>170392</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1790700" cy="438150"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="image3.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE194591-56B5-694D-A73E-45A444F39AE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1736725" y="4121150"/>
+          <a:ext cx="1790700" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>922867</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>23284</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1990725" cy="457200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="image14.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CB9157A-A547-F449-9506-9580655A57B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3547534" y="4112684"/>
+          <a:ext cx="1990725" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1285875" cy="657225"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="image11.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8213F14E-ABAC-8D43-B590-C34112A73E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="2235200"/>
+          <a:ext cx="1285875" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3419475" cy="590550"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="image5.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7D0A11-A550-8841-95A3-76BA195C9F40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4587875" y="3800475"/>
+          <a:ext cx="3419475" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1933575" cy="590550"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="image12.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFD53846-25CA-DA4E-B8E9-4FA3C185DF23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5610225" y="4962525"/>
+          <a:ext cx="1933575" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Least Squares Method"/>
+      <sheetName val="R"/>
+      <sheetName val="Scatter Diagram"/>
+      <sheetName val="Excel regression"/>
+      <sheetName val="Residual Plot"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1382,24 +2533,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="26" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1409,128 +2564,310 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>58</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.95012295520440793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>8</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>118</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.90273363000635731</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>12</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>117</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.89057533375715203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>16</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>137</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3">
+        <v>13.829316685939331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>20</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>157</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>20</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="10" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>22</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>149</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+    </row>
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
         <v>26</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>202</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2"/>
-    <row r="17" x14ac:dyDescent="0.2"/>
-    <row r="18" x14ac:dyDescent="0.2"/>
-    <row r="19" x14ac:dyDescent="0.2"/>
-    <row r="20" x14ac:dyDescent="0.2"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>14200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>14200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>74.248366013071902</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2.5488662852935494E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1530</v>
+      </c>
+      <c r="H13" s="3">
+        <v>191.25</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4">
+        <v>9</v>
+      </c>
+      <c r="G14" s="4">
+        <v>15730</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="E17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="3">
+        <v>60.000000000000014</v>
+      </c>
+      <c r="G17" s="3">
+        <v>9.2260348097034157</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6.5033355322803947</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1.8744406060719642E-4</v>
+      </c>
+      <c r="J17" s="3">
+        <v>38.72472557728635</v>
+      </c>
+      <c r="K17" s="3">
+        <v>81.275274422713679</v>
+      </c>
+      <c r="L17" s="3">
+        <v>38.72472557728635</v>
+      </c>
+      <c r="M17" s="3">
+        <v>81.275274422713679</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.58026523804108177</v>
+      </c>
+      <c r="H18" s="4">
+        <v>8.6167491557473035</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2.5488662852935494E-5</v>
+      </c>
+      <c r="J18" s="4">
+        <v>3.6619059615620344</v>
+      </c>
+      <c r="K18" s="4">
+        <v>6.3380940384379638</v>
+      </c>
+      <c r="L18" s="4">
+        <v>3.6619059615620344</v>
+      </c>
+      <c r="M18" s="4">
+        <v>6.3380940384379638</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" ht="16" x14ac:dyDescent="0.2"/>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -1540,6 +2877,1347 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609176F7-51D0-8948-BC7D-F175759CA544}">
+  <dimension ref="A1:I1001"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="8" customWidth="1"/>
+    <col min="8" max="9" width="12.6640625" style="8" customWidth="1"/>
+    <col min="10" max="26" width="10.5" style="8" customWidth="1"/>
+    <col min="27" max="16384" width="11.1640625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14">
+        <v>6</v>
+      </c>
+      <c r="C3" s="14">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <v>8</v>
+      </c>
+      <c r="C4" s="14">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>12</v>
+      </c>
+      <c r="C6" s="14">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <v>16</v>
+      </c>
+      <c r="C7" s="14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
+        <v>20</v>
+      </c>
+      <c r="C8" s="14">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14">
+        <v>20</v>
+      </c>
+      <c r="C9" s="14">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14">
+        <v>22</v>
+      </c>
+      <c r="C10" s="14">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17">
+        <v>26</v>
+      </c>
+      <c r="C11" s="17">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0.95012295520440793</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="11">
+        <v>0.90273363000635731</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="11">
+        <v>0.89057533375715203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="13">
+        <v>13.829316685939331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
+      <c r="C27" s="11">
+        <v>14200</v>
+      </c>
+      <c r="D27" s="11">
+        <v>14200</v>
+      </c>
+      <c r="E27" s="11">
+        <v>74.248366013071902</v>
+      </c>
+      <c r="F27" s="13">
+        <v>2.5488662852935494E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="11">
+        <v>8</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1530</v>
+      </c>
+      <c r="D28" s="11">
+        <v>191.25</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="9">
+        <v>9</v>
+      </c>
+      <c r="C29" s="9">
+        <v>15730</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="11">
+        <v>60.000000000000014</v>
+      </c>
+      <c r="C32" s="11">
+        <v>9.2260348097034157</v>
+      </c>
+      <c r="D32" s="11">
+        <v>6.5033355322803947</v>
+      </c>
+      <c r="E32" s="11">
+        <v>1.8744406060719642E-4</v>
+      </c>
+      <c r="F32" s="11">
+        <v>38.72472557728635</v>
+      </c>
+      <c r="G32" s="11">
+        <v>81.275274422713679</v>
+      </c>
+      <c r="H32" s="11">
+        <v>38.72472557728635</v>
+      </c>
+      <c r="I32" s="11">
+        <v>81.275274422713679</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="10">
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0.58026523804108177</v>
+      </c>
+      <c r="D33" s="9">
+        <v>8.6167491557473035</v>
+      </c>
+      <c r="E33" s="10">
+        <v>2.5488662852935494E-5</v>
+      </c>
+      <c r="F33" s="9">
+        <v>3.6619059615620344</v>
+      </c>
+      <c r="G33" s="9">
+        <v>6.3380940384379638</v>
+      </c>
+      <c r="H33" s="9">
+        <v>3.6619059615620344</v>
+      </c>
+      <c r="I33" s="9">
+        <v>6.3380940384379638</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
@@ -1576,7 +4254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
